--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A3E7F-61FF-4044-AEE4-A4B2C72FCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D365ED4-A58E-47E3-85C9-91F32C8D4C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>建檔日期時間</t>
@@ -653,6 +650,9 @@
 4:到期繳息還本</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,7 +1129,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,11 +1159,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1171,7 +1171,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,79 +1190,69 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,9 +1307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1357,9 +1347,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1392,26 +1382,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1444,26 +1417,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1640,116 +1596,116 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="6" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" style="60" customWidth="1"/>
+    <col min="5" max="6" width="6" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.109375" style="56" customWidth="1"/>
     <col min="8" max="8" width="65.88671875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="72.88671875" style="48"/>
+    <col min="9" max="16384" width="72.88671875" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="D1" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="49"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="66"/>
+      <c r="A3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="62"/>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="51"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="51"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" s="54" customFormat="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -1766,55 +1722,55 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="55" customFormat="1">
+      <c r="H8" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="52" customFormat="1">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="55" customFormat="1">
+      <c r="G9" s="55"/>
+      <c r="H9" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="52" customFormat="1">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
         <v>7</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="61" t="s">
-        <v>74</v>
+      <c r="G10" s="55"/>
+      <c r="H10" s="57" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1822,21 +1778,21 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9">
         <v>10</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1844,21 +1800,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
         <v>3</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1866,21 +1822,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="91.2">
@@ -1888,10 +1844,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1900,11 +1856,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>85</v>
+      <c r="G14" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.799999999999997">
@@ -1912,23 +1868,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>83</v>
+      <c r="G15" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37.799999999999997">
@@ -1936,23 +1892,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
         <v>2</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>84</v>
+      <c r="G16" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1960,23 +1916,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9">
         <v>8</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="59" t="s">
         <v>89</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1984,27 +1940,27 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="59"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -2013,24 +1969,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="59"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8">
@@ -2040,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -2049,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8"/>
@@ -2058,7 +2014,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8"/>
@@ -2067,7 +2023,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8"/>
@@ -2076,7 +2032,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="59"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8"/>
@@ -2085,52 +2041,52 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="56"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="56"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="59"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="56"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="59"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="56"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="59"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="56"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="59"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8"/>
@@ -2139,7 +2095,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8"/>
@@ -2148,7 +2104,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
@@ -2157,7 +2113,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="59"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
@@ -2166,7 +2122,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="59"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
@@ -2175,7 +2131,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="59"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8"/>
@@ -2184,7 +2140,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="59"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8"/>
@@ -2193,7 +2149,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="59"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8"/>
@@ -2202,7 +2158,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
@@ -2211,7 +2167,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="59"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
@@ -2220,7 +2176,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="59"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
@@ -2229,7 +2185,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="59"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
@@ -2238,7 +2194,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="59"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
@@ -2247,7 +2203,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="59"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
@@ -2256,7 +2212,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="59"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
@@ -2265,7 +2221,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="59"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
@@ -2274,7 +2230,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="59"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
@@ -2283,7 +2239,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="59"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
@@ -2292,7 +2248,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="59"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
@@ -2301,7 +2257,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="59"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
@@ -2310,7 +2266,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="59"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8"/>
@@ -2319,7 +2275,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="59"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="8"/>
@@ -2328,7 +2284,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="59"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="8"/>
@@ -2337,7 +2293,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="59"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8"/>
@@ -2346,7 +2302,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="59"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8"/>
@@ -2355,7 +2311,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="59"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
@@ -2364,7 +2320,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="59"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
@@ -2373,7 +2329,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="59"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
@@ -2382,7 +2338,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="9"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="59"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
@@ -2391,7 +2347,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="59"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8"/>
@@ -2400,7 +2356,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="59"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
@@ -2409,7 +2365,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="59"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
@@ -2418,7 +2374,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="59"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
@@ -2427,7 +2383,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="59"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8"/>
@@ -2436,7 +2392,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="59"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8"/>
@@ -2445,7 +2401,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="59"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8"/>
@@ -2454,7 +2410,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="59"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8"/>
@@ -2463,7 +2419,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="59"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
@@ -2472,7 +2428,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="59"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8"/>
@@ -2481,7 +2437,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="59"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8"/>
@@ -2490,7 +2446,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="59"/>
+      <c r="G70" s="55"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8"/>
@@ -2499,7 +2455,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="59"/>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8"/>
@@ -2508,7 +2464,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="59"/>
+      <c r="G72" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2579,24 +2535,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2621,12 +2577,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3060,17 +3016,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.6">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="15.6">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="19"/>
     </row>
@@ -3079,19 +3035,19 @@
     </row>
     <row r="5" spans="1:5" s="25" customFormat="1" ht="13.8">
       <c r="A5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="25" customFormat="1" ht="16.5" customHeight="1">
@@ -3099,113 +3055,113 @@
         <v>1</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" s="25" customFormat="1" ht="13.8">
       <c r="A7" s="26">
         <v>2</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" s="25" customFormat="1" ht="13.8">
       <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" s="25" customFormat="1" ht="13.8">
       <c r="A9" s="26">
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" s="34" customFormat="1" ht="41.4">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" ht="41.4">
       <c r="A10" s="26">
         <v>5</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" s="39" customFormat="1" ht="41.4">
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" s="37" customFormat="1" ht="41.4">
       <c r="A11" s="26">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" ht="41.4">
+      <c r="B11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="37" customFormat="1" ht="41.4">
       <c r="A12" s="26">
         <v>7</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="25" customFormat="1" ht="13.8">
+      <c r="A13" s="38">
+        <v>8</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="25" customFormat="1" ht="13.8">
-      <c r="A13" s="40">
-        <v>8</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.8">
+      <c r="A15" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.8">
-      <c r="A15" s="45" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="46"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="46"/>
+      <c r="E18" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
